--- a/xlsx/民意测验_intext.xlsx
+++ b/xlsx/民意测验_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE</t>
   </si>
   <si>
-    <t>公眾</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_民意测验</t>
+    <t>公众</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_民意测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A3%E6%9C%AC</t>
   </si>
   <si>
-    <t>樣本</t>
+    <t>样本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%8F%E5%8D%B7%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>問卷調查</t>
+    <t>问卷调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%86%E8%AE%BA</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E6%A8%A3</t>
   </si>
   <si>
-    <t>抽樣</t>
+    <t>抽样</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interview_(research)</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%BC%8F%E8%A8%AA%E8%AB%87</t>
   </si>
   <si>
-    <t>結構式訪談</t>
+    <t>结构式访谈</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semi-structured_interview</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%96%99%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>資料分析</t>
+    <t>资料分析</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Categorical_variable</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%B0%BA%E5%BA%A6</t>
   </si>
   <si>
-    <t>測量尺度</t>
+    <t>测量尺度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%AE%8A%E9%87%8F%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>多變量分析</t>
+    <t>多变量分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%AB%96%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>推論統計學</t>
+    <t>推论统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>圖模式</t>
+    <t>图模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E6%9D%BE%E5%9B%9E%E5%BD%92</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E8%A6%96%E7%8E%87</t>
   </si>
   <si>
-    <t>收視率</t>
+    <t>收视率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E8%AB%96%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>輿論調查</t>
+    <t>舆论调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Afrobarometer</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A4%BE%E6%9C%83%E8%AA%BF%E6%9F%A5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>國際社會調查計畫</t>
+    <t>国际社会调查计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latinobar%C3%B3metro</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E6%B4%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>蓋洛普</t>
+    <t>盖洛普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%9F%E8%AE%A1%E5%AD%A6%E4%BC%9A</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%85%AC%E5%85%B1%E8%BC%BF%E8%AB%96%E7%A0%94%E7%A9%B6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>世界公共輿論研究學會</t>
+    <t>世界公共舆论研究学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
